--- a/#MineConfig.xlsx
+++ b/#MineConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="AdWatchGlobalConfig" sheetId="1" r:id="rId1"/>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1302,10 +1302,10 @@
         <v>19</v>
       </c>
       <c r="D4" s="3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
@@ -1331,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3">
         <v>50</v>
